--- a/forms/app/death_report.xlsx
+++ b/forms/app/death_report.xlsx
@@ -354,7 +354,7 @@
     <t xml:space="preserve">horizontal-compact</t>
   </si>
   <si>
-    <t xml:space="preserve">. &lt; today()</t>
+    <t xml:space="preserve">. &lt;= today()</t>
   </si>
   <si>
     <t xml:space="preserve">Only past date allowed</t>
@@ -1093,8 +1093,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/forms/app/death_report.xlsx
+++ b/forms/app/death_report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="174">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -351,7 +351,7 @@
     <t xml:space="preserve">Date de décès</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal-compact</t>
+    <t xml:space="preserve">columns-compact</t>
   </si>
   <si>
     <t xml:space="preserve">. &lt;= today()</t>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t xml:space="preserve">group_diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
@@ -563,7 +566,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -650,6 +653,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -751,7 +760,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,6 +869,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -884,11 +897,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1093,19 +1106,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="42.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="17.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="47.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.16"/>
@@ -1113,9 +1122,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="45.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="68.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="52.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="19.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="18" style="1" width="10.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="1021" style="2" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.36"/>
@@ -1863,7 +1871,7 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
         <v>101</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="s">
         <v>109</v>
       </c>
@@ -1924,7 +1932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="s">
         <v>113</v>
       </c>
@@ -1953,7 +1961,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="s">
         <v>113</v>
       </c>
@@ -2016,12 +2024,17 @@
       <c r="B33" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -2033,32 +2046,32 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="28" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="s">
+    <row r="34" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="C34" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27" t="s">
+      <c r="D34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
@@ -2067,13 +2080,13 @@
         <v>94</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
@@ -2083,10 +2096,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2102,49 +2115,49 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
+    <row r="37" s="30" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="C37" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="D37" s="30" t="s">
         <v>141</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H38" s="26"/>
     </row>
     <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>112</v>
@@ -2271,9 +2284,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.41"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="32" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2287,30 +2300,30 @@
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2324,13 +2337,13 @@
         <v>90</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2338,13 +2351,13 @@
         <v>90</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2352,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2386,50 +2399,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41796875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="14.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="32" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="24.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="32" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="32.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="14.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="33" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="24.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="33" width="10.41"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>167</v>
       </c>
+      <c r="F1" s="34" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>169</v>
       </c>
+      <c r="B2" s="35" t="s">
+        <v>170</v>
+      </c>
       <c r="C2" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F2" s="26"/>
     </row>
